--- a/participants/participant_47/participant_47_task_orders.xlsx
+++ b/participants/participant_47/participant_47_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1649873149623115" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498731511757143" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1649873151176683" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498731512406843" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498731513037188" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650291288582433" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502912907038465" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912907058432" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650291290750841" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502912908288417" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1649873149592127.csv</t>
+          <t>go_stims-16502912885284307.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731496071496.csv</t>
+          <t>GNG_stims-1650291288549436.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498731496081176.csv</t>
+          <t>go_stims-16502912885514326.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731496221473.csv</t>
+          <t>GNG_stims-16502912885804398.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16498731501946857.csv</t>
+          <t>OB-16502912894987152.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16498731511576812.csv</t>
+          <t>ZB-match_2-16502912886774335.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_4-16498731497181134.csv</t>
+          <t>OB-16502912890547054.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16498731500667214.csv</t>
+          <t>TB-16502912906338472.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_4-16498731496621194.csv</t>
+          <t>TB-16502912901048453.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16498731506457164.csv</t>
+          <t>OB-16502912889397085.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_5-164987314981212.csv</t>
+          <t>ZB-match_9-16502912886434333.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1649873150093684.csv</t>
+          <t>TB-16502912906818433.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-1649873150884684.csv</t>
+          <t>ZB-match_7-16502912887074296.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498731512077146.csv</t>
+          <t>MM_stims-1650291290719845.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731511836817.csv</t>
+          <t>ZM_stims-1650291290708842.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-164987315122368.csv</t>
+          <t>MM_stims-1650291290734841.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873151208684.csv</t>
+          <t>ZM_stims-16502912907208426.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498731512397141.csv</t>
+          <t>MM_stims-16502912907498412.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731512246833.csv</t>
+          <t>ZM_stims-16502912907358422.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731512877142.csv</t>
+          <t>SAT_stims-16502912907548425.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873151255715.csv</t>
+          <t>vSAT_stims-16502912907978404.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731512426808.csv</t>
+          <t>SAT_stims-16502912907818418.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731512717195.csv</t>
+          <t>vSAT_stims-16502912908148568.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_47/participant_47_task_orders.xlsx
+++ b/participants/participant_47/participant_47_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650291288582433" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502912907038465" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912907058432" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650291290750841" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502912908288417" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650477893663982" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778961262655" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778961272342" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778961742454" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778962382307" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912885284307.csv</t>
+          <t>go_stims-16504778936249807.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650291288549436.csv</t>
+          <t>GNG_stims-16504778936480505.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912885514326.csv</t>
+          <t>go_stims-16504778936489804.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912885804398.csv</t>
+          <t>GNG_stims-16504778936630166.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16502912894987152.csv</t>
+          <t>ZB-match_0-16504778937129874.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_2-16502912886774335.csv</t>
+          <t>ZB-match_1-16504778938690202.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16502912890547054.csv</t>
+          <t>OB-16504778945000145.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16502912906338472.csv</t>
+          <t>TB-1650477896101233.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16502912901048453.csv</t>
+          <t>TB-16504778957020154.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16502912889397085.csv</t>
+          <t>ZB-match_0-16504778937819839.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_9-16502912886434333.csv</t>
+          <t>OB-16504778950609822.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16502912906818433.csv</t>
+          <t>TB-1650477895336981.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_7-16502912887074296.csv</t>
+          <t>OB-16504778946819825.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650291290719845.csv</t>
+          <t>MM_stims-16504778961422348.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291290708842.csv</t>
+          <t>ZM_stims-16504778961302338.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650291290734841.csv</t>
+          <t>MM_stims-1650477896158263.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912907208426.csv</t>
+          <t>ZM_stims-16504778961432347.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912907498412.csv</t>
+          <t>MM_stims-16504778961742454.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912907358422.csv</t>
+          <t>ZM_stims-16504778961592295.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912907548425.csv</t>
+          <t>vSAT_stims-1650477896222233.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912907978404.csv</t>
+          <t>SAT_stims-16504778961782432.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912907818418.csv</t>
+          <t>vSAT_stims-16504778962062318.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912908148568.csv</t>
+          <t>SAT_stims-16504778961902337.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_47/participant_47_task_orders.xlsx
+++ b/participants/participant_47/participant_47_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650477893663982" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778961262655" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778961272342" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778961742454" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778962382307" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961948101652" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650996198586441" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650996198586441" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961986344466" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961986984336" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778936249807.csv</t>
+          <t>go_stims-16509961947781181.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778936480505.csv</t>
+          <t>GNG_stims-16509961947941575.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778936489804.csv</t>
+          <t>go_stims-16509961947941575.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778936630166.csv</t>
+          <t>GNG_stims-16509961948101652.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_0-16504778937129874.csv</t>
+          <t>ZB-match_2-16509961948261518.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_1-16504778938690202.csv</t>
+          <t>TB-16509961985624347.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16504778945000145.csv</t>
+          <t>ZB-match_2-16509961950101175.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-1650477896101233.csv</t>
+          <t>OB-16509961960024054.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16504778957020154.csv</t>
+          <t>ZB-match_5-16509961951621234.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_0-16504778937819839.csv</t>
+          <t>TB-1650996196178404.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16504778950609822.csv</t>
+          <t>OB-1650996195594433.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1650477895336981.csv</t>
+          <t>OB-16509961955624015.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16504778946819825.csv</t>
+          <t>TB-16509961962904313.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778961422348.csv</t>
+          <t>MM_stims-16509961986024036.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778961302338.csv</t>
+          <t>ZM_stims-1650996198586441.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650477896158263.csv</t>
+          <t>MM_stims-16509961986183999.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778961432347.csv</t>
+          <t>ZM_stims-16509961986024036.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778961742454.csv</t>
+          <t>MM_stims-16509961986344466.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778961592295.csv</t>
+          <t>ZM_stims-16509961986183999.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477896222233.csv</t>
+          <t>SAT_stims-16509961986504269.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778961782432.csv</t>
+          <t>SAT_stims-16509961986344466.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778962062318.csv</t>
+          <t>vSAT_stims-1650996198666432.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778961902337.csv</t>
+          <t>vSAT_stims-16509961986824346.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_47/participant_47_task_orders.xlsx
+++ b/participants/participant_47/participant_47_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961948101652" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650996198586441" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650996198586441" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961986344466" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961986984336" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651168798601293" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511688011512878" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511688011532857" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651168801223049" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651168801288507" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961947781181.csv</t>
+          <t>go_stims-16511687985442812.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961947941575.csv</t>
+          <t>GNG_stims-16511687985683286.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961947941575.csv</t>
+          <t>go_stims-16511687985693264.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961948101652.csv</t>
+          <t>GNG_stims-1651168798600294.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_2-16509961948261518.csv</t>
+          <t>ZB-match_7-16511687987598324.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16509961985624347.csv</t>
+          <t>TB-16511688011292832.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_2-16509961950101175.csv</t>
+          <t>TB-1651168800966724.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16509961960024054.csv</t>
+          <t>ZB-match_8-1651168798641283.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_5-16509961951621234.csv</t>
+          <t>OB-16511687993110816.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1650996196178404.csv</t>
+          <t>TB-16511688007270868.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-1650996195594433.csv</t>
+          <t>ZB-match_4-16511687988965516.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16509961955624015.csv</t>
+          <t>OB-1651168799382915.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16509961962904313.csv</t>
+          <t>OB-1651168799326714.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961986024036.csv</t>
+          <t>MM_stims-16511688011672857.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996198586441.csv</t>
+          <t>ZM_stims-1651168801155301.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961986183999.csv</t>
+          <t>MM_stims-16511688011937099.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961986024036.csv</t>
+          <t>ZM_stims-16511688011682825.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961986344466.csv</t>
+          <t>MM_stims-1651168801223049.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961986183999.csv</t>
+          <t>ZM_stims-16511688011947143.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961986504269.csv</t>
+          <t>vSAT_stims-16511688012725039.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961986344466.csv</t>
+          <t>SAT_stims-16511688012394989.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650996198666432.csv</t>
+          <t>vSAT_stims-16511688012554984.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961986824346.csv</t>
+          <t>SAT_stims-1651168801223049.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_47/participant_47_task_orders.xlsx
+++ b/participants/participant_47/participant_47_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651168798601293" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511688011512878" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511688011532857" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651168801223049" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651168801288507" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512556261222646" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512556283006597" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512556283016615" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512556283471844" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651255628425457" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511687985442812.csv</t>
+          <t>go_stims-16512556260839703.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687985683286.csv</t>
+          <t>GNG_stims-1651255626105887.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511687985693264.csv</t>
+          <t>go_stims-16512556261069922.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651168798600294.csv</t>
+          <t>GNG_stims-16512556261203969.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_7-16511687987598324.csv</t>
+          <t>TB-16512556279107747.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16511688011292832.csv</t>
+          <t>TB-16512556282794943.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1651168800966724.csv</t>
+          <t>OB-16512556273849878.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_8-1651168798641283.csv</t>
+          <t>OB-16512556277380068.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16511687993110816.csv</t>
+          <t>ZB-match_5-1651255626310833.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16511688007270868.csv</t>
+          <t>TB-16512556278168015.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_4-16511687988965516.csv</t>
+          <t>ZB-match_6-16512556262656684.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1651168799382915.csv</t>
+          <t>OB-16512556272850084.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-1651168799326714.csv</t>
+          <t>ZB-match_6-16512556268316195.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511688011672857.csv</t>
+          <t>MM_stims-16512556283155515.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168801155301.csv</t>
+          <t>ZM_stims-16512556283036633.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511688011937099.csv</t>
+          <t>MM_stims-16512556283306842.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511688011682825.csv</t>
+          <t>ZM_stims-1651255628316546.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1651168801223049.csv</t>
+          <t>MM_stims-16512556283461854.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511688011947143.csv</t>
+          <t>ZM_stims-1651255628331681.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511688012725039.csv</t>
+          <t>vSAT_stims-1651255628394624.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511688012394989.csv</t>
+          <t>SAT_stims-16512556283530426.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511688012554984.csv</t>
+          <t>vSAT_stims-16512556284097714.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168801223049.csv</t>
+          <t>SAT_stims-16512556283788762.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_47/participant_47_task_orders.xlsx
+++ b/participants/participant_47/participant_47_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512556261222646" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512556283006597" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512556283016615" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512556283471844" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651255628425457" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="NB_TO-1651589045585127" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOL_TO-16515890456319466" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16515890456319466" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_TO-16515890456631956" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16515890457256973" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512556260839703.csv</t>
+          <t>ZB-match_5-1651589043832483.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255626105887.csv</t>
+          <t>OB-16515890441159182.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512556261069922.csv</t>
+          <t>OB-16515890448441927.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512556261203969.csv</t>
+          <t>TB-16515890454109972.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TB-1651589044953564.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZB-match_9-16515890438481045.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TB-16515890455694811.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OB-16515890447639709.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ZB-match_3-16515890438012626.csv</t>
         </is>
       </c>
     </row>
@@ -495,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +566,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16512556279107747.csv</t>
+          <t>MM_stims-16515890456006975.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +576,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16512556282794943.csv</t>
+          <t>ZM_stims-1651589045585127.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +586,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16512556273849878.csv</t>
+          <t>MM_stims-16515890456163235.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16512556277380068.csv</t>
+          <t>ZM_stims-16515890456006975.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_5-1651255626310833.csv</t>
+          <t>MM_stims-16515890456319466.csv</t>
         </is>
       </c>
     </row>
@@ -566,37 +616,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16512556278168015.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ZB-match_6-16512556262656684.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>OB-16512556272850084.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ZB-match_6-16512556268316195.csv</t>
+          <t>ZM_stims-16515890456163235.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +652,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +662,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -657,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +698,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512556283155515.csv</t>
+          <t>go_stims-16515890456319466.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +708,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16512556283036633.csv</t>
+          <t>GNG_stims-16515890456475704.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +718,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16512556283306842.csv</t>
+          <t>go_stims-16515890456475704.csv</t>
         </is>
       </c>
     </row>
@@ -708,27 +728,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1651255628316546.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512556283461854.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-1651255628331681.csv</t>
+          <t>GNG_stims-16515890456631956.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255628394624.csv</t>
+          <t>vSAT_stims-16515890457100737.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16512556283530426.csv</t>
+          <t>SAT_stims-16515890456631956.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512556284097714.csv</t>
+          <t>vSAT_stims-16515890456944494.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16512556283788762.csv</t>
+          <t>SAT_stims-16515890456788225.csv</t>
         </is>
       </c>
     </row>
